--- a/1. Bộ quy trình/2. Quy trình Bảo hành/04.TraBH/TBHyymmdd_KhachHang.xlsx
+++ b/1. Bộ quy trình/2. Quy trình Bảo hành/04.TraBH/TBHyymmdd_KhachHang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET_PKT\PhongBaoHanh\PL02.MauGiayTo\MauBaoHanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\1. Bộ quy trình\2. Quy trình Bảo hành\04.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,9 +44,6 @@
     <t>BIÊN BẢN TRẢ BẢO HÀNH</t>
   </si>
   <si>
-    <t>ĐC: Lô 8, Dãy B, Số nhà 29, Khu ĐTM Định Công, Quận Hoàng Mai, HN</t>
-  </si>
-  <si>
     <t>Email:</t>
   </si>
   <si>
@@ -71,24 +68,12 @@
     <t>Địa chỉ :</t>
   </si>
   <si>
-    <t>Nông Văn Thương</t>
-  </si>
-  <si>
-    <t>Vũ Thị Huyền</t>
-  </si>
-  <si>
     <t>ĐT :    +84 4 36400767       (Ext: 108   )  Fax:  +84 4 36400767</t>
   </si>
   <si>
-    <t>Website: http://vnetgps.vn/</t>
-  </si>
-  <si>
     <t>Hà Nội, ngày 18 tháng 07 Năm 2015</t>
   </si>
   <si>
-    <t>Nguyễn Tất Hào</t>
-  </si>
-  <si>
     <t>TIẾP NHẬN BẢO HÀNH</t>
   </si>
   <si>
@@ -96,6 +81,21 @@
   </si>
   <si>
     <t xml:space="preserve">Tên cty/ cá nhân: </t>
+  </si>
+  <si>
+    <t>Hà Văn Thể</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tùng</t>
+  </si>
+  <si>
+    <t>ĐC: Số 02 Phố Thanh Lâm, Minh Khai, Bắc Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>Website: http://vn-et.com</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="D2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
@@ -1096,7 +1096,7 @@
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="D2" s="46" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
@@ -1105,7 +1105,7 @@
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="D3" s="46" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
@@ -1114,7 +1114,7 @@
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="D4" s="51" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
@@ -1134,7 +1134,7 @@
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -1145,7 +1145,7 @@
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="4"/>
@@ -1156,7 +1156,7 @@
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
@@ -1167,7 +1167,7 @@
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="4"/>
@@ -1178,7 +1178,7 @@
     <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="11"/>
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
     </row>
     <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D20" s="60" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20" s="60"/>
       <c r="F20" s="60"/>
@@ -1310,16 +1310,16 @@
     </row>
     <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="58" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B21" s="58"/>
       <c r="C21" s="58"/>
       <c r="D21" s="64" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="64"/>
     </row>
@@ -1362,16 +1362,16 @@
     <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
       <c r="D27" s="58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E27" s="58"/>
       <c r="F27" s="58" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G27" s="58"/>
     </row>
